--- a/South German Credit Running RF on the new data/Performance_metrics/model_perf_metrics_merged__200_300__1_2_3_5.xlsx
+++ b/South German Credit Running RF on the new data/Performance_metrics/model_perf_metrics_merged__200_300__1_2_3_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>F1_std(%)</t>
+          <t>F1 (%)_std</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AUC_std(%)</t>
+          <t>AUC (%)_std</t>
         </is>
       </c>
     </row>
@@ -502,10 +502,10 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8508771929824562</v>
+        <v>0.8583877995642702</v>
       </c>
       <c r="H2" t="n">
-        <v>0.672906041327094</v>
+        <v>0.6800830748199169</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:1</t>
+          <t>RF_sample:200_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -564,16 +564,16 @@
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8357487922705314</v>
+        <v>0.8413793103448276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7380514222619485</v>
+        <v>0.7015353067984648</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:2</t>
+          <t>RF_sample:200_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -598,16 +598,16 @@
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8195121951219513</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7205951942794047</v>
+        <v>0.7101319732898681</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:3</t>
+          <t>RF_sample:200_cf:1_iteration:3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -632,16 +632,16 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8257756563245824</v>
+        <v>0.8364485981308413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7105788947894212</v>
+        <v>0.7084494452915505</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:4</t>
+          <t>RF_sample:200_cf:1_iteration:4</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -666,16 +666,16 @@
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8153477218225419</v>
+        <v>0.8445475638051044</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6979073558020926</v>
+        <v>0.7156264787843735</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:5</t>
+          <t>RF_sample:200_cf:1_iteration:5</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,16 +700,16 @@
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G8" t="n">
-        <v>0.83054892601432</v>
+        <v>0.8243559718969554</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7184657447815344</v>
+        <v>0.6902834008097165</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:6</t>
+          <t>RF_sample:200_cf:1_iteration:6</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -734,16 +734,16 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8384074941451991</v>
+        <v>0.8344988344988346</v>
       </c>
       <c r="H9" t="n">
-        <v>0.713943950786056</v>
+        <v>0.7029549397970452</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:7</t>
+          <t>RF_sample:200_cf:1_iteration:7</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -768,16 +768,16 @@
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7191755612808245</v>
+        <v>0.7053472842946528</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:8</t>
+          <t>RF_sample:200_cf:1_iteration:8</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -802,16 +802,16 @@
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8438228438228438</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7129712392870288</v>
+        <v>0.7187286397812713</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:9</t>
+          <t>RF_sample:200_cf:1_iteration:9</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -836,16 +836,16 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8229665071770335</v>
+        <v>0.826603325415677</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7081865502918134</v>
+        <v>0.7074767337925232</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:10</t>
+          <t>RF_sample:200_cf:1_iteration:10</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -870,16 +870,16 @@
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8164251207729468</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="H13" t="n">
-        <v>0.706504022293496</v>
+        <v>0.7163362952836637</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:11</t>
+          <t>RF_sample:200_cf:1_iteration:11</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -904,16 +904,16 @@
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8201438848920862</v>
+        <v>0.8254716981132076</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7057942057942058</v>
+        <v>0.69888006730112</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:12</t>
+          <t>RF_sample:200_cf:1_iteration:12</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -938,16 +938,16 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8349056603773585</v>
+        <v>0.8306264501160094</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7146537672853462</v>
+        <v>0.6919659288080341</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:13</t>
+          <t>RF_sample:200_cf:1_iteration:13</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -972,16 +972,16 @@
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8240963855421687</v>
+        <v>0.8387096774193548</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7167832167832169</v>
+        <v>0.699142962300857</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:14</t>
+          <t>RF_sample:200_cf:1_iteration:14</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1006,16 +1006,16 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G17" t="n">
-        <v>0.831353919239905</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7153635837846365</v>
+        <v>0.7101319732898681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:15</t>
+          <t>RF_sample:200_cf:1_iteration:15</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1040,16 +1040,16 @@
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8173076923076922</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7034018612965982</v>
+        <v>0.7163362952836637</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:16</t>
+          <t>RF_sample:200_cf:2_iteration:1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>200</v>
@@ -1080,10 +1080,10 @@
         <v>1100</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8321513002364065</v>
+        <v>0.8212560386473431</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7122614227877384</v>
+        <v>0.7143908722856092</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:17</t>
+          <t>RF_sample:200_cf:2_iteration:2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>200</v>
@@ -1114,10 +1114,10 @@
         <v>1100</v>
       </c>
       <c r="G20" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8274231678486997</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7225406172774593</v>
+        <v>0.7043745727956254</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:18</t>
+          <t>RF_sample:200_cf:2_iteration:3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>200</v>
@@ -1148,10 +1148,10 @@
         <v>1100</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8238095238095238</v>
+        <v>0.8353221957040574</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7050843892949156</v>
+        <v>0.7263525947736474</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:19</t>
+          <t>RF_sample:200_cf:2_iteration:4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>200</v>
@@ -1182,10 +1182,10 @@
         <v>1100</v>
       </c>
       <c r="G22" t="n">
-        <v>0.836104513064133</v>
+        <v>0.8246445497630333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7232504337767496</v>
+        <v>0.7019822282980178</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1200,11 +1200,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:20</t>
+          <t>RF_sample:200_cf:2_iteration:5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>200</v>
@@ -1216,10 +1216,10 @@
         <v>1100</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8210023866348448</v>
+        <v>0.8428571428571427</v>
       </c>
       <c r="H23" t="n">
-        <v>0.702692044797308</v>
+        <v>0.7366317892633683</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1234,11 +1234,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:21</t>
+          <t>RF_sample:200_cf:2_iteration:6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>200</v>
@@ -1250,10 +1250,10 @@
         <v>1100</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8058252427184467</v>
+        <v>0.8257756563245824</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6938324833061674</v>
+        <v>0.7105788947894212</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:22</t>
+          <t>RF_sample:200_cf:2_iteration:7</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>200</v>
@@ -1284,10 +1284,10 @@
         <v>1100</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8325358851674641</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7239602502760398</v>
+        <v>0.7191755612808245</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:23</t>
+          <t>RF_sample:200_cf:2_iteration:8</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>200</v>
@@ -1318,10 +1318,10 @@
         <v>1100</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8195121951219513</v>
+        <v>0.8019559902200488</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7205951942794047</v>
+        <v>0.6945422998054578</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:24</t>
+          <t>RF_sample:200_cf:2_iteration:9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
         <v>200</v>
@@ -1352,10 +1352,10 @@
         <v>1100</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8293838862559242</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7349492612650508</v>
+        <v>0.7098690782901309</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1370,11 +1370,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:25</t>
+          <t>RF_sample:200_cf:2_iteration:10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
         <v>200</v>
@@ -1386,10 +1386,10 @@
         <v>1100</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8337349397590362</v>
+        <v>0.8246445497630333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7325569167674431</v>
+        <v>0.7019822282980178</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1404,11 +1404,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:26</t>
+          <t>RF_sample:200_cf:2_iteration:11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
         <v>200</v>
@@ -1420,10 +1420,10 @@
         <v>1100</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8353221957040574</v>
+        <v>0.8038740920096852</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7263525947736474</v>
+        <v>0.6883379778116619</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1438,11 +1438,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:27</t>
+          <t>RF_sample:200_cf:2_iteration:12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
         <v>200</v>
@@ -1454,10 +1454,10 @@
         <v>1100</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.8416075650118203</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7191755612808245</v>
+        <v>0.7280351227719649</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1472,11 +1472,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:28</t>
+          <t>RF_sample:200_cf:2_iteration:13</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
         <v>200</v>
@@ -1488,10 +1488,10 @@
         <v>1100</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8423529411764707</v>
+        <v>0.8353221957040574</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7249329617750671</v>
+        <v>0.7263525947736474</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:29</t>
+          <t>RF_sample:200_cf:2_iteration:14</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>200</v>
@@ -1522,10 +1522,10 @@
         <v>1100</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8321513002364065</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7222777222777224</v>
+        <v>0.7122614227877384</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1540,11 +1540,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_iteration:30</t>
+          <t>RF_sample:200_cf:2_iteration:15</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
         <v>200</v>
@@ -1556,10 +1556,10 @@
         <v>1100</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8232445520581113</v>
+        <v>0.8254716981132076</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7198853777801146</v>
+        <v>0.69888006730112</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>1300</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8078817733990149</v>
+        <v>0.8069306930693069</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7110258162889742</v>
+        <v>0.714127977285872</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>1300</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8117359413202934</v>
+        <v>0.8203883495145632</v>
       </c>
       <c r="H35" t="n">
-        <v>0.710315999789684</v>
+        <v>0.7174930332825069</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>1300</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8195121951219513</v>
+        <v>0.8264058679706601</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7205951942794047</v>
+        <v>0.7339765497660233</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>1300</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8345323741007195</v>
+        <v>0.8289156626506025</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7294547557705453</v>
+        <v>0.7246700667753299</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>1300</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8329297820823245</v>
+        <v>0.8177339901477833</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7356590777643408</v>
+        <v>0.7267995162732005</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>1300</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8059701492537312</v>
+        <v>0.7960687960687962</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7172301382827699</v>
+        <v>0.6897576108102426</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>1300</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8115942028985507</v>
+        <v>0.8240963855421687</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6986171723013828</v>
+        <v>0.7167832167832169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>1300</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8166259168704156</v>
+        <v>0.8067632850241545</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7182028497817972</v>
+        <v>0.6907303223092697</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>1300</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8289156626506025</v>
+        <v>0.8184019370460049</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7246700667753299</v>
+        <v>0.7119985277880014</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>1300</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8115942028985507</v>
+        <v>0.8019559902200488</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6986171723013828</v>
+        <v>0.6945422998054578</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>1300</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8162291169451075</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7222777222777224</v>
+        <v>0.6948051948051949</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>1300</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8192771084337348</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7088963667911037</v>
+        <v>0.7151006887848993</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>1300</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8203883495145632</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7244071717755929</v>
+        <v>0.7174930332825069</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>1300</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8089330024813894</v>
+        <v>0.8173076923076922</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7196224827803775</v>
+        <v>0.7034018612965982</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>1300</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8433734939759036</v>
+        <v>0.8300970873786409</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7483306167516693</v>
+        <v>0.7332667332667333</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2084,26 +2084,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:16</t>
+          <t>RF_sample:200_cf:5_iteration:1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>200</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8166259168704156</v>
+        <v>0.8078817733990149</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7182028497817972</v>
+        <v>0.7110258162889742</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2118,26 +2118,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:17</t>
+          <t>RF_sample:200_cf:5_iteration:2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>200</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8088235294117647</v>
+        <v>0.812807881773399</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7079236552920763</v>
+        <v>0.7189126662810873</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2152,26 +2152,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:18</t>
+          <t>RF_sample:200_cf:5_iteration:3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>200</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8146341463414635</v>
+        <v>0.8129675810473814</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7127083442872917</v>
+        <v>0.7306114937693885</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2186,26 +2186,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:19</t>
+          <t>RF_sample:200_cf:5_iteration:4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>200</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.7970297029702972</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7129712392870288</v>
+        <v>0.6983542773016457</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2220,26 +2220,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:20</t>
+          <t>RF_sample:200_cf:5_iteration:5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>200</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8184019370460049</v>
+        <v>0.8089330024813894</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7119985277880014</v>
+        <v>0.7196224827803775</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2254,26 +2254,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:21</t>
+          <t>RF_sample:200_cf:5_iteration:6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
         <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8146341463414635</v>
+        <v>0.8238213399503722</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7127083442872917</v>
+        <v>0.7432830327567169</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2288,26 +2288,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:22</t>
+          <t>RF_sample:200_cf:5_iteration:7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
         <v>200</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8203883495145632</v>
+        <v>0.8069306930693069</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7174930332825069</v>
+        <v>0.714127977285872</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2322,26 +2322,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:23</t>
+          <t>RF_sample:200_cf:5_iteration:8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
         <v>200</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8079800498753118</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7227246437772754</v>
+        <v>0.7282191492717809</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2356,26 +2356,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:24</t>
+          <t>RF_sample:200_cf:5_iteration:9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
         <v>200</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8069306930693069</v>
+        <v>0.7839195979899497</v>
       </c>
       <c r="H57" t="n">
-        <v>0.714127977285872</v>
+        <v>0.6918870603081129</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2390,26 +2390,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:25</t>
+          <t>RF_sample:200_cf:5_iteration:10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
         <v>200</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.805</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7222777222777224</v>
+        <v>0.7203322992796677</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2424,26 +2424,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:26</t>
+          <t>RF_sample:200_cf:5_iteration:11</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
         <v>200</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8166259168704156</v>
+        <v>0.7969924812030076</v>
       </c>
       <c r="H59" t="n">
-        <v>0.7182028497817972</v>
+        <v>0.7100531047899469</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2458,26 +2458,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:27</t>
+          <t>RF_sample:200_cf:5_iteration:12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
         <v>200</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8166259168704156</v>
+        <v>0.812807881773399</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7182028497817972</v>
+        <v>0.7189126662810873</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2492,26 +2492,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:28</t>
+          <t>RF_sample:200_cf:5_iteration:13</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D61" t="n">
         <v>200</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8385542168674698</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7404437667595563</v>
+        <v>0.7134181607865817</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2526,26 +2526,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:29</t>
+          <t>RF_sample:200_cf:5_iteration:14</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
         <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8208955223880596</v>
+        <v>0.8089330024813894</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7408906882591093</v>
+        <v>0.7196224827803775</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2560,26 +2560,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_iteration:30</t>
+          <t>RF_sample:200_cf:5_iteration:15</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
         <v>200</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8243902439024391</v>
+        <v>0.7949367088607594</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7284820442715179</v>
+        <v>0.7162574267837425</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2594,26 +2594,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:1</t>
+          <t>RF_sample:300_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8384074941451991</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7282191492717809</v>
+        <v>0.713943950786056</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2628,26 +2628,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:2</t>
+          <t>RF_sample:300_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8020304568527918</v>
+        <v>0.8199052132701422</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7296387822703612</v>
+        <v>0.6940953783059046</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2662,26 +2662,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:3</t>
+          <t>RF_sample:300_cf:1_iteration:3</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8009950248756219</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7093432882906567</v>
+        <v>0.6933855618066146</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2696,26 +2696,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:4</t>
+          <t>RF_sample:300_cf:1_iteration:4</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7950617283950618</v>
+        <v>0.8388625592417062</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6928597718071403</v>
+        <v>0.7256427782743573</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2730,26 +2730,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:5</t>
+          <t>RF_sample:300_cf:1_iteration:5</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8349056603773585</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7134181607865817</v>
+        <v>0.7146537672853462</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2764,26 +2764,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:6</t>
+          <t>RF_sample:300_cf:1_iteration:6</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8070175438596492</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7258268047741733</v>
+        <v>0.6909932173090069</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2798,26 +2798,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:7</t>
+          <t>RF_sample:300_cf:1_iteration:7</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8329411764705883</v>
       </c>
       <c r="H70" t="n">
-        <v>0.7361059992638941</v>
+        <v>0.7091592617908408</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2832,26 +2832,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:8</t>
+          <t>RF_sample:300_cf:1_iteration:8</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8090452261306533</v>
+        <v>0.8321513002364065</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7313213102686787</v>
+        <v>0.7122614227877384</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2866,26 +2866,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:9</t>
+          <t>RF_sample:300_cf:1_iteration:9</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8192771084337348</v>
+        <v>0.8349056603773585</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7088963667911037</v>
+        <v>0.7146537672853462</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2900,26 +2900,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:10</t>
+          <t>RF_sample:300_cf:1_iteration:10</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8070175438596492</v>
+        <v>0.8388625592417062</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7258268047741733</v>
+        <v>0.7256427782743573</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2934,26 +2934,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:11</t>
+          <t>RF_sample:300_cf:1_iteration:11</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8292682926829269</v>
+        <v>0.8393285371702638</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7363688942636312</v>
+        <v>0.7373416057626583</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2968,26 +2968,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:12</t>
+          <t>RF_sample:300_cf:1_iteration:12</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.8321513002364065</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7124454492875545</v>
+        <v>0.7122614227877384</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3002,26 +3002,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:13</t>
+          <t>RF_sample:300_cf:1_iteration:13</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8059701492537312</v>
+        <v>0.8517647058823529</v>
       </c>
       <c r="H76" t="n">
-        <v>0.7172301382827699</v>
+        <v>0.7407066617592933</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3036,26 +3036,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:14</t>
+          <t>RF_sample:300_cf:1_iteration:14</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8098765432098767</v>
+        <v>0.8380952380952381</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7165203217834797</v>
+        <v>0.7287449392712551</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3070,26 +3070,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:15</t>
+          <t>RF_sample:300_cf:1_iteration:15</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7970297029702972</v>
+        <v>0.8400954653937948</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6983542773016457</v>
+        <v>0.7342394447657605</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3104,26 +3104,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:16</t>
+          <t>RF_sample:300_cf:2_iteration:1</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8188585607940446</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7353961827646038</v>
+        <v>0.7244071717755929</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3138,26 +3138,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:17</t>
+          <t>RF_sample:300_cf:2_iteration:2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G80" t="n">
-        <v>0.81203007518797</v>
+        <v>0.8166259168704156</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7337136547662864</v>
+        <v>0.7182028497817972</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3172,26 +3172,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:18</t>
+          <t>RF_sample:300_cf:2_iteration:3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7989949748743719</v>
+        <v>0.8223844282238443</v>
       </c>
       <c r="H81" t="n">
-        <v>0.7155476102844525</v>
+        <v>0.7229875387770124</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3206,26 +3206,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:19</t>
+          <t>RF_sample:300_cf:2_iteration:4</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8049382716049382</v>
+        <v>0.8238095238095238</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7086334717913665</v>
+        <v>0.7050843892949156</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3240,26 +3240,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:20</t>
+          <t>RF_sample:300_cf:2_iteration:5</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8090452261306533</v>
+        <v>0.8168316831683169</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7313213102686787</v>
+        <v>0.7299016772700984</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3274,26 +3274,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:21</t>
+          <t>RF_sample:300_cf:2_iteration:6</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8080808080808082</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="H84" t="n">
-        <v>0.7344234712655765</v>
+        <v>0.7253798832746201</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3308,26 +3308,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:22</t>
+          <t>RF_sample:300_cf:2_iteration:7</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G85" t="n">
-        <v>0.805</v>
+        <v>0.8264058679706601</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7203322992796677</v>
+        <v>0.7339765497660233</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3342,26 +3342,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:23</t>
+          <t>RF_sample:300_cf:2_iteration:8</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G86" t="n">
-        <v>0.81203007518797</v>
+        <v>0.8166259168704156</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7337136547662864</v>
+        <v>0.7182028497817972</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3376,26 +3376,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:24</t>
+          <t>RF_sample:300_cf:2_iteration:9</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8220551378446115</v>
+        <v>0.8117359413202934</v>
       </c>
       <c r="H87" t="n">
-        <v>0.7494873547505128</v>
+        <v>0.710315999789684</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3410,26 +3410,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:25</t>
+          <t>RF_sample:300_cf:2_iteration:10</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8097560975609758</v>
+        <v>0.8400954653937948</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7048214942951786</v>
+        <v>0.7342394447657605</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3444,26 +3444,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:26</t>
+          <t>RF_sample:300_cf:2_iteration:11</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8049382716049382</v>
+        <v>0.8184019370460049</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7086334717913665</v>
+        <v>0.7119985277880014</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3478,26 +3478,26 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:27</t>
+          <t>RF_sample:300_cf:2_iteration:12</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8249400479616307</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7361059992638941</v>
+        <v>0.7136810557863189</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3512,26 +3512,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:28</t>
+          <t>RF_sample:300_cf:2_iteration:13</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8089330024813894</v>
+        <v>0.8215158924205378</v>
       </c>
       <c r="H91" t="n">
-        <v>0.7196224827803775</v>
+        <v>0.7260896997739102</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3546,26 +3546,26 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:29</t>
+          <t>RF_sample:300_cf:2_iteration:14</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8212560386473431</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7236973552763026</v>
+        <v>0.7143908722856092</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -3580,26 +3580,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_iteration:30</t>
+          <t>RF_sample:300_cf:2_iteration:15</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8009950248756219</v>
+        <v>0.837772397094431</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7093432882906567</v>
+        <v>0.743545927756454</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:1</t>
+          <t>RF_sample:300_cf:3_iteration:1</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3624,16 +3624,16 @@
         <v>300</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8289156626506025</v>
+        <v>0.8264058679706601</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7246700667753299</v>
+        <v>0.7339765497660233</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:2</t>
+          <t>RF_sample:300_cf:3_iteration:2</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3658,16 +3658,16 @@
         <v>300</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8223844282238443</v>
+        <v>0.8186274509803921</v>
       </c>
       <c r="H95" t="n">
-        <v>0.7229875387770124</v>
+        <v>0.7236973552763026</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:3</t>
+          <t>RF_sample:300_cf:3_iteration:3</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3692,16 +3692,16 @@
         <v>300</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G96" t="n">
-        <v>0.8059701492537312</v>
+        <v>0.7980295566502464</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7172301382827699</v>
+        <v>0.6952521163047479</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:4</t>
+          <t>RF_sample:300_cf:3_iteration:4</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3726,16 +3726,16 @@
         <v>300</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7960687960687962</v>
+        <v>0.8208955223880596</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6897576108102426</v>
+        <v>0.7408906882591093</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:5</t>
+          <t>RF_sample:300_cf:3_iteration:5</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3760,16 +3760,16 @@
         <v>300</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8357487922705314</v>
+        <v>0.8232445520581113</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7380514222619485</v>
+        <v>0.7198853777801146</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:6</t>
+          <t>RF_sample:300_cf:3_iteration:6</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3794,16 +3794,16 @@
         <v>300</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8117359413202934</v>
+        <v>0.8272506082725061</v>
       </c>
       <c r="H99" t="n">
-        <v>0.710315999789684</v>
+        <v>0.7308743887691256</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:7</t>
+          <t>RF_sample:300_cf:3_iteration:7</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3828,16 +3828,16 @@
         <v>300</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8201438848920862</v>
+        <v>0.8206388206388204</v>
       </c>
       <c r="H100" t="n">
-        <v>0.7057942057942058</v>
+        <v>0.7291918607708081</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:8</t>
+          <t>RF_sample:300_cf:3_iteration:8</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3862,16 +3862,16 @@
         <v>300</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8345323741007195</v>
+        <v>0.8098765432098767</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7294547557705453</v>
+        <v>0.7165203217834797</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:9</t>
+          <t>RF_sample:300_cf:3_iteration:9</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3896,16 +3896,16 @@
         <v>300</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8300970873786409</v>
+        <v>0.8069306930693069</v>
       </c>
       <c r="H102" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.714127977285872</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:10</t>
+          <t>RF_sample:300_cf:3_iteration:10</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3930,16 +3930,16 @@
         <v>300</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8385542168674698</v>
+        <v>0.8195121951219513</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7404437667595563</v>
+        <v>0.7205951942794047</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:11</t>
+          <t>RF_sample:300_cf:3_iteration:11</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3964,16 +3964,16 @@
         <v>300</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8155339805825241</v>
+        <v>0.8146341463414635</v>
       </c>
       <c r="H104" t="n">
-        <v>0.7096061832903938</v>
+        <v>0.7127083442872917</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:12</t>
+          <t>RF_sample:300_cf:3_iteration:12</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3998,16 +3998,16 @@
         <v>300</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8175182481751825</v>
+        <v>0.8206388206388204</v>
       </c>
       <c r="H105" t="n">
-        <v>0.7151006887848993</v>
+        <v>0.7291918607708081</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:13</t>
+          <t>RF_sample:300_cf:3_iteration:13</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4032,16 +4032,16 @@
         <v>300</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8168316831683169</v>
+        <v>0.8195121951219513</v>
       </c>
       <c r="H106" t="n">
-        <v>0.7299016772700984</v>
+        <v>0.7205951942794047</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:14</t>
+          <t>RF_sample:300_cf:3_iteration:14</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4066,16 +4066,16 @@
         <v>300</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8243902439024391</v>
+        <v>0.8264058679706601</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7284820442715179</v>
+        <v>0.7339765497660233</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:15</t>
+          <t>RF_sample:300_cf:3_iteration:15</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4100,16 +4100,16 @@
         <v>300</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="G108" t="n">
-        <v>0.81203007518797</v>
+        <v>0.8195121951219513</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7337136547662864</v>
+        <v>0.7205951942794047</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4124,26 +4124,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:16</t>
+          <t>RF_sample:300_cf:5_iteration:1</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>300</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8300970873786409</v>
+        <v>0.7918781725888325</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.713865082286135</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4158,26 +4158,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:17</t>
+          <t>RF_sample:300_cf:5_iteration:2</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
         <v>300</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8166259168704156</v>
+        <v>0.8229426433915211</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7182028497817972</v>
+        <v>0.7463851937536148</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4192,26 +4192,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:18</t>
+          <t>RF_sample:300_cf:5_iteration:3</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
         <v>300</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8405797101449276</v>
+        <v>0.805</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7459382722540617</v>
+        <v>0.7203322992796677</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4226,26 +4226,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:19</t>
+          <t>RF_sample:300_cf:5_iteration:4</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
         <v>300</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8155339805825241</v>
+        <v>0.801007556675063</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7096061832903938</v>
+        <v>0.7210421157789578</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4260,26 +4260,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:20</t>
+          <t>RF_sample:300_cf:5_iteration:5</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
         <v>300</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8398058252427184</v>
+        <v>0.81203007518797</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7490404332509596</v>
+        <v>0.7337136547662864</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4294,26 +4294,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:21</t>
+          <t>RF_sample:300_cf:5_iteration:6</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
         <v>300</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8240963855421687</v>
+        <v>0.8060453400503779</v>
       </c>
       <c r="H114" t="n">
-        <v>0.7167832167832169</v>
+        <v>0.728928965771071</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4328,26 +4328,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:22</t>
+          <t>RF_sample:300_cf:5_iteration:7</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D115" t="n">
         <v>300</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8325123152709361</v>
+        <v>0.8079800498753118</v>
       </c>
       <c r="H115" t="n">
-        <v>0.7504600662495399</v>
+        <v>0.7227246437772754</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4362,26 +4362,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:23</t>
+          <t>RF_sample:300_cf:5_iteration:8</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
         <v>300</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F116" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8284313725490197</v>
+        <v>0.7848101265822786</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7394710552605289</v>
+        <v>0.7004837267995163</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4396,26 +4396,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:24</t>
+          <t>RF_sample:300_cf:5_iteration:9</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
         <v>300</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G117" t="n">
-        <v>0.8166259168704156</v>
+        <v>0.7908163265306123</v>
       </c>
       <c r="H117" t="n">
-        <v>0.7182028497817972</v>
+        <v>0.7169672432830327</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4430,26 +4430,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:25</t>
+          <t>RF_sample:300_cf:5_iteration:10</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
         <v>300</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8329297820823245</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7356590777643408</v>
+        <v>0.7124454492875545</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -4464,26 +4464,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:26</t>
+          <t>RF_sample:300_cf:5_iteration:11</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
         <v>300</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8321167883211679</v>
+        <v>0.8197530864197532</v>
       </c>
       <c r="H119" t="n">
-        <v>0.7387612387612388</v>
+        <v>0.7322940217677061</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -4498,26 +4498,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:27</t>
+          <t>RF_sample:300_cf:5_iteration:12</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D120" t="n">
         <v>300</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G120" t="n">
-        <v>0.8138957816377171</v>
+        <v>0.8069306930693069</v>
       </c>
       <c r="H120" t="n">
-        <v>0.7275093327724907</v>
+        <v>0.714127977285872</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4532,26 +4532,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:28</t>
+          <t>RF_sample:300_cf:5_iteration:13</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D121" t="n">
         <v>300</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F121" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G121" t="n">
-        <v>0.8312958435207823</v>
+        <v>0.805</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7418633997581368</v>
+        <v>0.7203322992796677</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -4566,26 +4566,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:29</t>
+          <t>RF_sample:300_cf:5_iteration:14</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D122" t="n">
         <v>300</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.8089330024813894</v>
       </c>
       <c r="H122" t="n">
-        <v>0.7191755612808245</v>
+        <v>0.7196224827803775</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -4600,2071 +4600,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_iteration:30</t>
+          <t>RF_sample:300_cf:5_iteration:15</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
         <v>300</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F123" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8041237113402061</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7134181607865817</v>
+        <v>0.7468321152531678</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:1</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>300</v>
-      </c>
-      <c r="E124" t="n">
-        <v>3</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.8217821782178217</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.7377885272622114</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:2</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>2</v>
-      </c>
-      <c r="D125" t="n">
-        <v>300</v>
-      </c>
-      <c r="E125" t="n">
-        <v>3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.7124454492875545</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:3</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>300</v>
-      </c>
-      <c r="E126" t="n">
-        <v>3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.8159203980099502</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.7330038382669962</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:4</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>4</v>
-      </c>
-      <c r="D127" t="n">
-        <v>300</v>
-      </c>
-      <c r="E127" t="n">
-        <v>3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.8341463414634146</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.7442557442557444</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:5</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>300</v>
-      </c>
-      <c r="E128" t="n">
-        <v>3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.8190954773869347</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.7470950102529049</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:6</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>300</v>
-      </c>
-      <c r="E129" t="n">
-        <v>3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.8170426065162907</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.7416005047583994</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:7</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>300</v>
-      </c>
-      <c r="E130" t="n">
-        <v>3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.8089330024813894</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.7196224827803775</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:8</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>300</v>
-      </c>
-      <c r="E131" t="n">
-        <v>3</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.7315842052684157</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:9</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>300</v>
-      </c>
-      <c r="E132" t="n">
-        <v>3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.8159203980099502</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.7330038382669962</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:10</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>10</v>
-      </c>
-      <c r="D133" t="n">
-        <v>300</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.8215158924205378</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.7260896997739102</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:11</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>11</v>
-      </c>
-      <c r="D134" t="n">
-        <v>300</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.8177339901477833</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.7267995162732005</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:12</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>12</v>
-      </c>
-      <c r="D135" t="n">
-        <v>300</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.8069306930693069</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.714127977285872</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:13</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>13</v>
-      </c>
-      <c r="D136" t="n">
-        <v>300</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.7282191492717809</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:14</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>14</v>
-      </c>
-      <c r="D137" t="n">
-        <v>300</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.8179551122194514</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.7384983437615017</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:15</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>15</v>
-      </c>
-      <c r="D138" t="n">
-        <v>300</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.7919799498746867</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.7021662547978337</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:16</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>16</v>
-      </c>
-      <c r="D139" t="n">
-        <v>300</v>
-      </c>
-      <c r="E139" t="n">
-        <v>3</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.802992518703242</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.7148377937851622</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:17</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>17</v>
-      </c>
-      <c r="D140" t="n">
-        <v>300</v>
-      </c>
-      <c r="E140" t="n">
-        <v>3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.8197530864197532</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.7322940217677061</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:18</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>18</v>
-      </c>
-      <c r="D141" t="n">
-        <v>300</v>
-      </c>
-      <c r="E141" t="n">
-        <v>3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.8079800498753118</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.7227246437772754</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:19</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>19</v>
-      </c>
-      <c r="D142" t="n">
-        <v>300</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.8312958435207823</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.7418633997581368</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:20</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>20</v>
-      </c>
-      <c r="D143" t="n">
-        <v>300</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.8215158924205378</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.7260896997739102</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:21</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>21</v>
-      </c>
-      <c r="D144" t="n">
-        <v>300</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.7989949748743719</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.7155476102844525</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:22</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>22</v>
-      </c>
-      <c r="D145" t="n">
-        <v>300</v>
-      </c>
-      <c r="E145" t="n">
-        <v>3</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.8170426065162907</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.7416005047583994</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:23</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>23</v>
-      </c>
-      <c r="D146" t="n">
-        <v>300</v>
-      </c>
-      <c r="E146" t="n">
-        <v>3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.8089330024813894</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.7196224827803775</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:24</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>24</v>
-      </c>
-      <c r="D147" t="n">
-        <v>300</v>
-      </c>
-      <c r="E147" t="n">
-        <v>3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.7361059992638941</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:25</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>25</v>
-      </c>
-      <c r="D148" t="n">
-        <v>300</v>
-      </c>
-      <c r="E148" t="n">
-        <v>3</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.8243902439024391</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.7284820442715179</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:26</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>26</v>
-      </c>
-      <c r="D149" t="n">
-        <v>300</v>
-      </c>
-      <c r="E149" t="n">
-        <v>3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.8208955223880596</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.7408906882591093</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:27</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>27</v>
-      </c>
-      <c r="D150" t="n">
-        <v>300</v>
-      </c>
-      <c r="E150" t="n">
-        <v>3</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.802992518703242</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.7148377937851622</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:28</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>28</v>
-      </c>
-      <c r="D151" t="n">
-        <v>300</v>
-      </c>
-      <c r="E151" t="n">
-        <v>3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.8226600985221675</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.7346863662653137</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:29</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>29</v>
-      </c>
-      <c r="D152" t="n">
-        <v>300</v>
-      </c>
-      <c r="E152" t="n">
-        <v>3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.8129675810473814</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.7306114937693885</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:3_iteration:30</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>30</v>
-      </c>
-      <c r="D153" t="n">
-        <v>300</v>
-      </c>
-      <c r="E153" t="n">
-        <v>3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.8246913580246914</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.7401808717598192</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:1</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>300</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.8040201005025126</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.7234344602765655</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:2</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>300</v>
-      </c>
-      <c r="E155" t="n">
-        <v>5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.7969543147208121</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.7217519322782481</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:3</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>300</v>
-      </c>
-      <c r="E156" t="n">
-        <v>5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.8020304568527918</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.7296387822703612</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:4</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>4</v>
-      </c>
-      <c r="D157" t="n">
-        <v>300</v>
-      </c>
-      <c r="E157" t="n">
-        <v>5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.8030303030303031</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.7265366212734633</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:5</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>300</v>
-      </c>
-      <c r="E158" t="n">
-        <v>5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.81203007518797</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.7337136547662864</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:6</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>300</v>
-      </c>
-      <c r="E159" t="n">
-        <v>5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.8030303030303031</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.7265366212734633</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:7</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>300</v>
-      </c>
-      <c r="E160" t="n">
-        <v>5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.8060453400503779</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.728928965771071</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:8</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>8</v>
-      </c>
-      <c r="D161" t="n">
-        <v>300</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.7979539641943734</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.7303485987696513</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:9</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>9</v>
-      </c>
-      <c r="D162" t="n">
-        <v>300</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.7066880487933119</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:10</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>10</v>
-      </c>
-      <c r="D163" t="n">
-        <v>300</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.7908163265306123</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.7169672432830327</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:11</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>11</v>
-      </c>
-      <c r="D164" t="n">
-        <v>300</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.7090803932909197</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:12</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>12</v>
-      </c>
-      <c r="D165" t="n">
-        <v>300</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0.7203322992796677</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:13</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>13</v>
-      </c>
-      <c r="D166" t="n">
-        <v>300</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.8140703517587941</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.7392081602607918</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:14</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>14</v>
-      </c>
-      <c r="D167" t="n">
-        <v>300</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.7959697732997482</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.7131552657868447</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:15</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>15</v>
-      </c>
-      <c r="D168" t="n">
-        <v>300</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.8168316831683169</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.7299016772700984</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:16</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>16</v>
-      </c>
-      <c r="D169" t="n">
-        <v>300</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.8059701492537312</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.7172301382827699</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:17</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>17</v>
-      </c>
-      <c r="D170" t="n">
-        <v>300</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.801007556675063</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.7210421157789578</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:18</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>18</v>
-      </c>
-      <c r="D171" t="n">
-        <v>300</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.8051282051282053</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0.7437299542562701</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:19</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>19</v>
-      </c>
-      <c r="D172" t="n">
-        <v>300</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.8090452261306533</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.7313213102686787</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:20</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>20</v>
-      </c>
-      <c r="D173" t="n">
-        <v>300</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.7959697732997482</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0.7131552657868447</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:21</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>21</v>
-      </c>
-      <c r="D174" t="n">
-        <v>300</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.7959697732997482</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0.7131552657868447</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:22</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>22</v>
-      </c>
-      <c r="D175" t="n">
-        <v>300</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.7949367088607594</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.7162574267837425</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:23</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>23</v>
-      </c>
-      <c r="D176" t="n">
-        <v>300</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.8208955223880596</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.7408906882591093</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:24</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>24</v>
-      </c>
-      <c r="D177" t="n">
-        <v>300</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.8080808080808082</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.7344234712655765</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:25</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>25</v>
-      </c>
-      <c r="D178" t="n">
-        <v>300</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.8168316831683169</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.7299016772700984</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:26</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>26</v>
-      </c>
-      <c r="D179" t="n">
-        <v>300</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.8010204081632654</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.732740943267259</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:27</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>27</v>
-      </c>
-      <c r="D180" t="n">
-        <v>300</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.7124454492875545</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:28</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>28</v>
-      </c>
-      <c r="D181" t="n">
-        <v>300</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.8050632911392406</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.7320311267679688</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:29</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>29</v>
-      </c>
-      <c r="D182" t="n">
-        <v>300</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.7124454492875545</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>RF_sample:300_cf:5_iteration:30</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>30</v>
-      </c>
-      <c r="D183" t="n">
-        <v>300</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.8051282051282053</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.7437299542562701</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
         <v>0</v>
       </c>
     </row>
